--- a/biology/Botanique/Johann_Konrad_von_Gemmingen/Johann_Konrad_von_Gemmingen.xlsx
+++ b/biology/Botanique/Johann_Konrad_von_Gemmingen/Johann_Konrad_von_Gemmingen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Conrad von Gemmingen (23 octobre 1561 - 7 novembre 1612) est un ecclésiastique et humaniste allemand, prince-évêque d'Eichstätt.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Tiefenbronn et issu d'une famille noble d'Augsbourg, il est le neveu du prince-évêque d'Augsbourg Jean-Othon de Gemmingen. 
 Après avoir étudié la théologie à l'université de Fribourg-en-Brisgau, à Dillingen (1583), à Pont-à-Mousson (1584), à Paris (1587), à Sienne (1588), à Pérouse (1588/89) puis à Bologne (1589), il est ordonné prêtre en 1592 et devient, dès l'année suivante, évêque-coadjuteur d'Eichstätt. Il succède à son prédécesseur Kaspar von Seckendorff en 1595.
